--- a/PCB/Hand_Santi/Project Outputs for Hand_Santi/BOM_Sheet1_Sheet1_2024-06-13.xlsx
+++ b/PCB/Hand_Santi/Project Outputs for Hand_Santi/BOM_Sheet1_Sheet1_2024-06-13.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFCACF1-AA2A-E745-BC4D-AD97531DD484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="BOM_Sheet1_Sheet1_2024-06-13" state="visible" r:id="rId4"/>
+    <sheet name="BOM_Sheet1_Sheet1_2024-06-13" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="99">
   <si>
     <t>No.</t>
   </si>
@@ -299,19 +303,37 @@
   </si>
   <si>
     <t>0.9083</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Pin_1x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -338,7 +360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -674,17 +696,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100"/>
+    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="11" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -719,7 +743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -754,7 +778,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -789,7 +813,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -824,7 +848,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -859,7 +883,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -894,7 +918,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -929,7 +953,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -964,7 +988,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -999,7 +1023,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -1034,7 +1058,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -1069,7 +1093,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -1104,7 +1128,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -1139,14 +1163,24 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>96</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>